--- a/process.xlsx
+++ b/process.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86155\eclipse-workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E127333-6300-4641-9DFA-B6F779A6134A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B242E3-33E0-402C-9439-5055E9596031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,10 +31,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -358,34 +354,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.21875" customWidth="1"/>
     <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>7875</v>
-      </c>
-      <c r="B1" s="1">
-        <v>44013</v>
-      </c>
-      <c r="D1">
-        <f>B1-A1</f>
-        <v>36138</v>
-      </c>
-      <c r="F1">
-        <f>D1*24*60</f>
-        <v>52038720</v>
-      </c>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
